--- a/QUANGHANH2/excel/TCLD/Diploma/Bằng cấp - giấy chứng nhận.xlsx
+++ b/QUANGHANH2/excel/TCLD/Diploma/Bằng cấp - giấy chứng nhận.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tên trường</t>
   </si>
@@ -40,13 +40,19 @@
   </si>
   <si>
     <t>Loại</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Bảng danh sách bằng cấp và giấy chứng nhận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +66,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,8 +92,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,16 +122,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,48 +429,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="39.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/QUANGHANH2/excel/TCLD/Diploma/Bằng cấp - giấy chứng nhận.xlsx
+++ b/QUANGHANH2/excel/TCLD/Diploma/Bằng cấp - giấy chứng nhận.xlsx
@@ -442,9 +442,9 @@
     <col min="3" max="3" width="35.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
